--- a/aichan/545673026570760810_2021-07-10_11-30-02.xlsx
+++ b/aichan/545673026570760810_2021-07-10_11-30-02.xlsx
@@ -1275,7 +1275,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11010,7 +11010,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12975,7 +12975,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14125,7 +14125,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14192,7 +14192,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -18021,7 +18021,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19075,7 +19075,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -20195,7 +20195,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20337,7 +20337,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20547,7 +20547,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20910,7 +20910,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -22373,7 +22373,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22448,7 +22448,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22657,7 +22657,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22795,7 +22795,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22953,7 +22953,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -23229,7 +23229,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23296,7 +23296,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23454,7 +23454,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23600,7 +23600,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23671,7 +23671,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23742,7 +23742,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23824,7 +23824,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23966,7 +23966,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -24175,7 +24175,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24321,7 +24321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24621,7 +24621,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24918,7 +24918,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -25072,7 +25072,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -25143,7 +25143,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -25215,7 +25215,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -25286,7 +25286,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25420,7 +25420,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25617,7 +25617,7 @@
         </is>
       </c>
       <c r="I345" t="n">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25771,7 +25771,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25838,7 +25838,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25905,7 +25905,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26051,7 +26051,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -26130,7 +26130,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26209,7 +26209,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26284,7 +26284,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26434,7 +26434,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26576,7 +26576,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26730,7 +26730,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -27018,7 +27018,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27097,7 +27097,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27239,7 +27239,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -27321,7 +27321,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -27400,7 +27400,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27473,7 +27473,7 @@
         </is>
       </c>
       <c r="I370" t="n">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="J370" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27611,7 +27611,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27686,7 +27686,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27765,7 +27765,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27840,7 +27840,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27919,7 +27919,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -28140,7 +28140,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -28290,7 +28290,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28361,7 +28361,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -28499,7 +28499,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28570,7 +28570,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28712,7 +28712,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28787,7 +28787,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28858,7 +28858,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28992,7 +28992,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29134,7 +29134,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29272,7 +29272,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -29414,7 +29414,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29489,7 +29489,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29647,7 +29647,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29715,7 +29715,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29790,7 +29790,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29857,7 +29857,7 @@
         </is>
       </c>
       <c r="I403" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J403" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -30077,7 +30077,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -30152,7 +30152,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30227,7 +30227,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30302,7 +30302,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30432,7 +30432,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30511,7 +30511,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30590,7 +30590,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30820,7 +30820,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -30887,7 +30887,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30966,7 +30966,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31187,7 +31187,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31475,7 +31475,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31538,7 +31538,7 @@
         </is>
       </c>
       <c r="I426" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J426" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31684,7 +31684,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31759,7 +31759,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31826,7 +31826,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31893,7 +31893,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">

--- a/aichan/545673026570760810_2021-07-10_11-30-02.xlsx
+++ b/aichan/545673026570760810_2021-07-10_11-30-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:36:02</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44396.48335648148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>4885898497</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:36:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44390.65023148148</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:38:59</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44390.56873842593</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-12 08:21:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44389.34851851852</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-12 00:23:16</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44389.01615740741</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>4881369657</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-12 00:23:11</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44389.01609953704</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -973,10 +977,8 @@
           <t>4881369657</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-11 23:25:54</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44388.97631944445</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>4885898497</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:59:02</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44388.49932870371</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>4885708283</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:28:01</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44388.47778935185</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1182,10 +1180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:33:52</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44388.31518518519</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1257,10 +1253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:04:37</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44388.29487268518</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1328,10 +1322,8 @@
           <t>4879246099</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:07:01</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44388.04653935185</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1400,10 +1392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:29:48</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44388.02069444444</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1467,10 +1457,8 @@
           <t>4883757081</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:20:51</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44388.01447916667</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1538,10 +1526,8 @@
           <t>4883068876</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:43:48</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44387.94708333333</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1617,10 +1603,8 @@
           <t>4880480298</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:42:52</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44387.94643518519</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1692,10 +1676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:20:05</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44387.88894675926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1763,10 +1745,8 @@
           <t>4881216078</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:56:02</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44387.78891203704</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1842,10 +1822,8 @@
           <t>4881382026</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:49:54</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44387.78465277778</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1921,10 +1899,8 @@
           <t>4881369657</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:48:51</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44387.78392361111</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2000,10 +1976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:33:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44387.77358796296</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2079,10 +2053,8 @@
           <t>4881216078</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:53</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44387.76728009259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2158,10 +2130,8 @@
           <t>4880912626</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:03</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.7528125</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -2237,10 +2207,8 @@
           <t>4881065932</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:31</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.75174768519</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2304,10 +2272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:59:42</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.74979166667</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2375,10 +2341,8 @@
           <t>4878769982</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:59:31</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.74966435185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2454,10 +2418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:58:35</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.74901620371</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2533,10 +2495,8 @@
           <t>4880658653</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:53:40</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.74560185185</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2600,10 +2560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:48:10</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.74178240741</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2675,10 +2633,8 @@
           <t>4880928805</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:43:03</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.73822916667</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2750,10 +2706,8 @@
           <t>4880912626</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:40:12</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.73625</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2821,10 +2775,8 @@
           <t>4878769982</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:25:47</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.72623842592</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2888,10 +2840,8 @@
           <t>4880658653</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:58:32</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.70731481481</v>
       </c>
       <c r="I34" t="n">
         <v>6</v>
@@ -2955,10 +2905,8 @@
           <t>4880530378</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:34:47</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44387.69082175926</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3030,10 +2978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:27:43</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44387.68591435185</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3097,10 +3043,8 @@
           <t>4880480298</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:24:35</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44387.68373842593</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3164,10 +3108,8 @@
           <t>4880453629</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:20:57</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44387.68121527778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3235,10 +3177,8 @@
           <t>4880415446</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:13:07</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44387.67577546297</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3302,10 +3242,8 @@
           <t>4880313100</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:11:52</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44387.67490740741</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3381,10 +3319,8 @@
           <t>4880394672</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:10:57</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.67427083333</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3452,10 +3388,8 @@
           <t>4880313100</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:54:25</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.66278935185</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3519,10 +3453,8 @@
           <t>4880263454</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:45:40</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.65671296296</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -3598,10 +3530,8 @@
           <t>4879246099</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:39:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.65273148148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3665,10 +3595,8 @@
           <t>4879246099</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:39:20</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.65231481481</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -3732,10 +3660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:37:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.65083333333</v>
       </c>
       <c r="I46" t="n">
         <v>17</v>
@@ -3809,10 +3735,8 @@
           <t>4880074085</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:14:04</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.63476851852</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3884,10 +3808,8 @@
           <t>4880074085</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:09:13</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.63140046296</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3959,10 +3881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:08:02</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.63057870371</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4030,10 +3950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:48:23</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.61693287037</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4097,10 +4015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:34:42</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.60743055555</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4164,10 +4080,8 @@
           <t>4879886109</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:31:44</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.60537037037</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4231,10 +4145,8 @@
           <t>4879865557</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:27:39</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.60253472222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4302,10 +4214,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:27:11</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.60221064815</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4373,10 +4283,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:23:48</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.59986111111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4444,10 +4352,8 @@
           <t>4879611758</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:20:31</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.59758101852</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4515,10 +4421,8 @@
           <t>4879809061</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:18:14</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.59599537037</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4582,10 +4486,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:18:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.59597222223</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4653,10 +4555,8 @@
           <t>4879805043</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:15:56</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.59439814815</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4728,10 +4628,8 @@
           <t>4878790811</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:15:55</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.59438657408</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4799,10 +4697,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:15:18</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.59395833333</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4870,10 +4766,8 @@
           <t>4879793213</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:14:56</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.5937037037</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4937,10 +4831,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:14:06</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.593125</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5008,10 +4900,8 @@
           <t>4879778373</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:12:15</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.59184027778</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5079,10 +4969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:12:00</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.59166666667</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5158,10 +5046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:05:50</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.58738425926</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5225,10 +5111,8 @@
           <t>4879685716</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:54:51</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.57975694445</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5292,10 +5176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:56</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.57564814815</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5360,10 +5242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:03</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.57503472222</v>
       </c>
       <c r="I69" t="n">
         <v>10</v>
@@ -5434,10 +5314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:43:59</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.57221064815</v>
       </c>
       <c r="I70" t="n">
         <v>16</v>
@@ -5510,10 +5388,8 @@
           <t>4879611758</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:42:17</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.57103009259</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5585,10 +5461,8 @@
           <t>4879599830</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:41:16</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.57032407408</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5652,10 +5526,8 @@
           <t>4878943927</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:16</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.56893518518</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5723,10 +5595,8 @@
           <t>4879583994</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:38:11</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.56818287037</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5802,10 +5672,8 @@
           <t>4879582390</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:37:21</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.56760416667</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5869,10 +5737,8 @@
           <t>4879540769</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:30:10</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.56261574074</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5948,10 +5814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:25</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.56001157407</v>
       </c>
       <c r="I77" t="n">
         <v>63</v>
@@ -6027,10 +5891,8 @@
           <t>4879499312</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:24:49</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.55890046297</v>
       </c>
       <c r="I78" t="n">
         <v>5</v>
@@ -6106,10 +5968,8 @@
           <t>4879337722</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:23:25</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.55792824074</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6177,10 +6037,8 @@
           <t>4879488906</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:22:20</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.55717592593</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6244,10 +6102,8 @@
           <t>4879491223</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:21:16</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.55643518519</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6320,10 +6176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:21:08</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.55634259259</v>
       </c>
       <c r="I82" t="n">
         <v>16</v>
@@ -6391,10 +6245,8 @@
           <t>4879474910</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:37</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.55598379629</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6470,10 +6322,8 @@
           <t>4879466414</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:18:45</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.5546875</v>
       </c>
       <c r="I84" t="n">
         <v>5</v>
@@ -6549,10 +6399,8 @@
           <t>4879462195</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:17:02</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.55349537037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6620,10 +6468,8 @@
           <t>4879426169</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:11:36</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.54972222223</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6687,10 +6533,8 @@
           <t>4878966431</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:09:23</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.54818287037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6758,10 +6602,8 @@
           <t>4879399024</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:08:16</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.54740740741</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6837,10 +6679,8 @@
           <t>4878790811</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:51</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.54642361111</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6916,10 +6756,8 @@
           <t>4879383554</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:05:41</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.54561342593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6987,10 +6825,8 @@
           <t>4879379815</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:05:37</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.54556712963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7062,10 +6898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:05:10</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.54525462963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7125,10 +6959,8 @@
           <t>4878966431</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:07</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.54452546296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7196,10 +7028,8 @@
           <t>4879337722</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:18</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.54048611111</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7267,10 +7097,8 @@
           <t>4878966431</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:56:57</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.53954861111</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7338,10 +7166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:54:46</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.53803240741</v>
       </c>
       <c r="I96" t="n">
         <v>13</v>
@@ -7409,10 +7235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:08</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.5362037037</v>
       </c>
       <c r="I97" t="n">
         <v>11</v>
@@ -7480,10 +7304,8 @@
           <t>4879293615</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:48</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.53597222222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7555,10 +7377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:46:28</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.53226851852</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7635,10 +7455,8 @@
           <t>4879253651</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:55</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.53188657408</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7702,10 +7520,8 @@
           <t>4879255614</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:49</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.53181712963</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7777,10 +7593,8 @@
           <t>4879251938</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:07</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.53133101852</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7856,10 +7670,8 @@
           <t>4879243199</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.53107638889</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -7935,10 +7747,8 @@
           <t>4879246099</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:58</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.53053240741</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8007,10 +7817,8 @@
           <t>4878923038</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:29</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.53019675926</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8088,10 +7896,8 @@
           <t>4879227873</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:19</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.52938657408</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8159,10 +7965,8 @@
           <t>4879227821</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:17</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.52936342593</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8238,10 +8042,8 @@
           <t>4878802406</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:31</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.52813657407</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8309,10 +8111,8 @@
           <t>4878928370</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:01</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.52640046296</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8388,10 +8188,8 @@
           <t>4879201288</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:42</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.52618055556</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8459,10 +8257,8 @@
           <t>4879189969</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:04</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.52574074074</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8538,10 +8334,8 @@
           <t>4879162832</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:56</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.52217592593</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8617,10 +8411,8 @@
           <t>4879162704</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:53</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.52214120371</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8696,10 +8488,8 @@
           <t>4879152053</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:30</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.52118055556</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8777,10 +8567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.52055555556</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8852,10 +8640,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:03</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.52017361111</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8923,10 +8709,8 @@
           <t>4879143041</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:00</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.52013888889</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9002,10 +8786,8 @@
           <t>4878980434</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:57</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.52010416667</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9074,10 +8856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:57</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.51940972222</v>
       </c>
       <c r="I119" t="n">
         <v>53</v>
@@ -9141,10 +8921,8 @@
           <t>4879135079</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:17</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.51894675926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9212,10 +8990,8 @@
           <t>4878980434</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:59</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.51873842593</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9287,10 +9063,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:49</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.51862268519</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9358,10 +9132,8 @@
           <t>4878965215</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:17</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.51825231482</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9433,10 +9205,8 @@
           <t>4879126432</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.51797453704</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9504,10 +9274,8 @@
           <t>4879121923</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:50</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.51793981482</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9571,10 +9339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:49</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.51792824074</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9644,10 +9410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:41</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.51783564815</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -9711,10 +9475,8 @@
           <t>4879110336</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:00</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.51597222222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9782,10 +9544,8 @@
           <t>4879099955</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:48</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.51583333333</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9857,10 +9617,8 @@
           <t>4878923038</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:34</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.5156712963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9936,10 +9694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:55</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.51521990741</v>
       </c>
       <c r="I131" t="n">
         <v>14</v>
@@ -10008,10 +9764,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:53</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.51519675926</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10079,10 +9833,8 @@
           <t>4879088860</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:43</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.51508101852</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10154,10 +9906,8 @@
           <t>4879088336</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:29</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.51491898148</v>
       </c>
       <c r="I134" t="n">
         <v>8</v>
@@ -10227,10 +9977,8 @@
           <t>4879086556</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:43</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.51438657408</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10307,10 +10055,8 @@
           <t>4879076787</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:52</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.51310185185</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10383,10 +10129,8 @@
           <t>4878868913</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:17:37</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.5122337963</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10454,10 +10198,8 @@
           <t>4878865727</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:32</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.51148148148</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -10529,10 +10271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.51100694444</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10609,10 +10349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:34</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.51081018519</v>
       </c>
       <c r="I140" t="n">
         <v>16</v>
@@ -10689,10 +10427,8 @@
           <t>4879049207</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:27</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.51072916666</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10761,10 +10497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:58</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.51039351852</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10832,10 +10566,8 @@
           <t>4879046596</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:17</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.50991898148</v>
       </c>
       <c r="I143" t="n">
         <v>4</v>
@@ -10911,10 +10643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:52</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.50962962963</v>
       </c>
       <c r="I144" t="n">
         <v>16</v>
@@ -10986,10 +10716,8 @@
           <t>4879040740</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:48</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.50958333333</v>
       </c>
       <c r="I145" t="n">
         <v>5</v>
@@ -11067,10 +10795,8 @@
           <t>4879014385</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:48</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.5075</v>
       </c>
       <c r="I146" t="n">
         <v>7</v>
@@ -11138,10 +10864,8 @@
           <t>4879022528</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:39</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.50739583333</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11217,10 +10941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:52</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.50685185185</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11298,10 +11020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:18</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.50645833334</v>
       </c>
       <c r="I149" t="n">
         <v>18</v>
@@ -11369,10 +11089,8 @@
           <t>4878946944</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:08</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.50564814815</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11444,10 +11162,8 @@
           <t>4879005736</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:49</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.50542824074</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -11511,10 +11227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:30</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.50451388889</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11582,10 +11296,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:12</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.50430555556</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11657,10 +11369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:53</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.50408564815</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11724,10 +11434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.50351851852</v>
       </c>
       <c r="I155" t="n">
         <v>6</v>
@@ -11795,10 +11503,8 @@
           <t>4878790811</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:57</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.5034375</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11866,10 +11572,8 @@
           <t>4878966431</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:27</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.50309027778</v>
       </c>
       <c r="I157" t="n">
         <v>4</v>
@@ -11937,10 +11641,8 @@
           <t>4878980434</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:26</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.5030787037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12009,10 +11711,8 @@
           <t>4878976329</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:02</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.50280092593</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12080,10 +11780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:42</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.50256944444</v>
       </c>
       <c r="I160" t="n">
         <v>12</v>
@@ -12160,10 +11858,8 @@
           <t>4878975484</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:42</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.50256944444</v>
       </c>
       <c r="I161" t="n">
         <v>5</v>
@@ -12223,10 +11919,8 @@
           <t>4878972485</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:35</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.50248842593</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12298,10 +11992,8 @@
           <t>4878967270</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:03</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.50211805556</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12373,10 +12065,8 @@
           <t>4878966431</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:42</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.501875</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12440,10 +12130,8 @@
           <t>4878901653</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:17</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.50158564815</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12515,10 +12203,8 @@
           <t>4878965215</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:12</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.50152777778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12586,10 +12272,8 @@
           <t>4878943927</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:11</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.5015162037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12657,10 +12341,8 @@
           <t>4878901653</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:42</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.50118055556</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12732,10 +12414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:34</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.50108796296</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12807,10 +12487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:26</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.50099537037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12878,10 +12556,8 @@
           <t>4878788247</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:24</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.50097222222</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12957,10 +12633,8 @@
           <t>4878948337</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:10</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.50081018519</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13028,10 +12702,8 @@
           <t>4878947330</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:49</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.50056712963</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13095,10 +12767,8 @@
           <t>4878946944</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:41</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.50047453704</v>
       </c>
       <c r="I174" t="n">
         <v>19</v>
@@ -13167,10 +12837,8 @@
           <t>4878928620</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.50038194445</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13246,10 +12914,8 @@
           <t>4878946471</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:31</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.50035879629</v>
       </c>
       <c r="I176" t="n">
         <v>4</v>
@@ -13317,10 +12983,8 @@
           <t>4878944207</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:25</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.50028935185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13384,10 +13048,8 @@
           <t>4878788247</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:24</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.50027777778</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13463,10 +13125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:23</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.5002662037</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13535,10 +13195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:18</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.50020833333</v>
       </c>
       <c r="I180" t="n">
         <v>12</v>
@@ -13606,10 +13264,8 @@
           <t>4878943927</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:18</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.50020833333</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13681,10 +13337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:15</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.50017361111</v>
       </c>
       <c r="I182" t="n">
         <v>17</v>
@@ -13744,10 +13398,8 @@
           <t>4878943784</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:14</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.50016203704</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13815,10 +13467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:13</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.50015046296</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13878,10 +13528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:12</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.50013888889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13953,10 +13601,8 @@
           <t>4878939552</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:45</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.49982638889</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14028,10 +13674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:40</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.49976851852</v>
       </c>
       <c r="I187" t="n">
         <v>18</v>
@@ -14103,10 +13747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:39</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.49975694445</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14178,10 +13820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:31</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.49966435185</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14245,10 +13885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:25</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.49959490741</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14316,10 +13954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:14</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.49946759259</v>
       </c>
       <c r="I191" t="n">
         <v>6</v>
@@ -14391,10 +14027,8 @@
           <t>4878928620</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:10</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.4994212963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14466,10 +14100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:00</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.49930555555</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -14541,10 +14173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:52</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.49921296296</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14616,10 +14246,8 @@
           <t>4878940863</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.49921296296</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14695,10 +14323,8 @@
           <t>4878910233</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:47</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.49915509259</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14766,10 +14392,8 @@
           <t>4878910233</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:41</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.49908564815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14841,10 +14465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:39</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.4990625</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14916,10 +14538,8 @@
           <t>4878931675</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:24</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.49888888889</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14987,10 +14607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:20</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.49884259259</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15062,10 +14680,8 @@
           <t>4878931345</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:14</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.49877314815</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15137,10 +14753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:59</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.49859953704</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15205,10 +14819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:57</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.49857638889</v>
       </c>
       <c r="I203" t="n">
         <v>76</v>
@@ -15280,10 +14892,8 @@
           <t>4878935103</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:48</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.49847222222</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15347,10 +14957,8 @@
           <t>4878928620</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:47</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.49846064814</v>
       </c>
       <c r="I205" t="n">
         <v>5</v>
@@ -15418,10 +15026,8 @@
           <t>4878910233</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:44</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.49842592593</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15489,10 +15095,8 @@
           <t>4878928370</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:39</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.49836805555</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15568,10 +15172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:21</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.49815972222</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15647,10 +15249,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:16</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.49810185185</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15715,10 +15315,8 @@
           <t>4878923658</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:07</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.49799768518</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15782,10 +15380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:59</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.49790509259</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15857,10 +15453,8 @@
           <t>4878926774</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:53</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.49783564815</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15928,10 +15522,8 @@
           <t>4878923038</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:51</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.4978125</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16003,10 +15595,8 @@
           <t>4878918157</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:40</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.49768518518</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16078,10 +15668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:34</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.49761574074</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16149,10 +15737,8 @@
           <t>4878922374</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:32</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.49759259259</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16225,10 +15811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:21</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.49746527777</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16288,10 +15872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:16</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.49740740741</v>
       </c>
       <c r="I218" t="n">
         <v>6</v>
@@ -16359,10 +15941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:08</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.49731481481</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16434,10 +16014,8 @@
           <t>4878921461</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:08</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.49731481481</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16501,10 +16079,8 @@
           <t>4878921332</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:04</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.49726851852</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16577,10 +16153,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:52</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.49712962963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16653,10 +16227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:49</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.4970949074</v>
       </c>
       <c r="I223" t="n">
         <v>7</v>
@@ -16732,10 +16304,8 @@
           <t>4878845837</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:37</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.49695601852</v>
       </c>
       <c r="I224" t="n">
         <v>26</v>
@@ -16811,10 +16381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:22</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.4967824074</v>
       </c>
       <c r="I225" t="n">
         <v>4</v>
@@ -16890,10 +16458,8 @@
           <t>4878852810</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:16</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.49671296297</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16965,10 +16531,8 @@
           <t>4878915302</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:15</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.49670138889</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17036,10 +16600,8 @@
           <t>4878915248</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:14</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.49668981481</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17115,10 +16677,8 @@
           <t>4878904777</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:00</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.49652777778</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17194,10 +16754,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:58</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.49650462963</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17269,10 +16827,8 @@
           <t>4878904466</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:51</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.49642361111</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17348,10 +16904,8 @@
           <t>4878908415</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:46</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.49636574074</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17419,10 +16973,8 @@
           <t>4878904132</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:40</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.4962962963</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17498,10 +17050,8 @@
           <t>4878903275</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:15</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.49600694444</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17565,10 +17115,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:07</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.49591435185</v>
       </c>
       <c r="I235" t="n">
         <v>3</v>
@@ -17644,10 +17192,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:06</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.49590277778</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -17719,10 +17265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:02</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.49585648148</v>
       </c>
       <c r="I237" t="n">
         <v>46</v>
@@ -17794,10 +17338,8 @@
           <t>4878901653</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:01</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.4958449074</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17861,10 +17403,8 @@
           <t>4878906416</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:52</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.49574074074</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17924,10 +17464,8 @@
           <t>4878910233</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:44</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.49564814815</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17999,10 +17537,8 @@
           <t>4878899965</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:36</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44387.49555555556</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18074,10 +17610,8 @@
           <t>4878901653</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:27</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44387.49545138889</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18149,10 +17683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:13</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44387.49528935185</v>
       </c>
       <c r="I243" t="n">
         <v>34</v>
@@ -18220,10 +17752,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:53</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44387.49505787037</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18299,10 +17829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:22</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44387.49469907407</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18378,10 +17906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:21</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44387.4946875</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18449,10 +17975,8 @@
           <t>4878889089</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:09</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44387.49454861111</v>
       </c>
       <c r="I247" t="n">
         <v>13</v>
@@ -18528,10 +18052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:02</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44387.49446759259</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18599,10 +18121,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:00</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44387.49444444444</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18678,10 +18198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:51:36</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44387.49416666666</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18749,10 +18267,8 @@
           <t>4878887529</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:51:21</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44387.49399305556</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18828,10 +18344,8 @@
           <t>4878884165</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:52</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44387.49365740741</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18907,10 +18421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:50</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44387.49363425926</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18974,10 +18486,8 @@
           <t>4878831638</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:41</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44387.49353009259</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19049,10 +18559,8 @@
           <t>4878790811</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:20</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44387.49328703704</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19128,10 +18636,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:19</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44387.49327546296</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19203,10 +18709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:13</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44387.49320601852</v>
       </c>
       <c r="I257" t="n">
         <v>205</v>
@@ -19279,10 +18783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:13</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44387.49320601852</v>
       </c>
       <c r="I258" t="n">
         <v>98</v>
@@ -19351,10 +18853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:05</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44387.49311342592</v>
       </c>
       <c r="I259" t="n">
         <v>424</v>
@@ -19430,10 +18930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:49</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44387.49292824074</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19512,10 +19010,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:44</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44387.49287037037</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19579,10 +19075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:41</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44387.49283564815</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19650,10 +19144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:38</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44387.49280092592</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19729,10 +19221,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:33</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44387.49274305555</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19808,10 +19298,8 @@
           <t>4878842931</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:31</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44387.49271990741</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19887,10 +19375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44387.49270833333</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19958,10 +19444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:15</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44387.49253472222</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20027,10 +19511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:11</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44387.49248842592</v>
       </c>
       <c r="I268" t="n">
         <v>14</v>
@@ -20106,10 +19588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:59</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44387.49234953704</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20177,10 +19657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:38</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44387.49210648148</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20248,10 +19726,8 @@
           <t>4878872097</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:33</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44387.49204861111</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20319,10 +19795,8 @@
           <t>4878868913</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:16</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44387.49185185185</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20390,10 +19864,8 @@
           <t>4878863697</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:13</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44387.49181712963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20453,10 +19925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:07</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44387.49174768518</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20525,10 +19995,8 @@
           <t>4878802406</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:03</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44387.49170138889</v>
       </c>
       <c r="I275" t="n">
         <v>23</v>
@@ -20600,10 +20068,8 @@
           <t>4878867767</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:47:44</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44387.49148148148</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20671,10 +20137,8 @@
           <t>4878837188</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:47:30</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44387.49131944445</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20742,10 +20206,8 @@
           <t>4878859687</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:47:18</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44387.49118055555</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20821,10 +20283,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:56</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44387.49092592593</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20892,10 +20352,8 @@
           <t>4878788247</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:56</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44387.49092592593</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20963,10 +20421,8 @@
           <t>4878860897</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:50</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44387.49085648148</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21042,10 +20498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:48</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44387.49083333334</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21110,10 +20564,8 @@
           <t>4878865727</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:48</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44387.49083333334</v>
       </c>
       <c r="I283" t="n">
         <v>7</v>
@@ -21185,10 +20637,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:46</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44387.49081018518</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21264,10 +20714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:42</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44387.49076388889</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21339,10 +20787,8 @@
           <t>4878860473</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:38</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44387.49071759259</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21410,10 +20856,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:28</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44387.49060185185</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21485,10 +20929,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:26</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44387.49057870371</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21564,10 +21006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:21</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44387.49052083334</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21639,10 +21079,8 @@
           <t>4878842931</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:19</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44387.49049768518</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21706,10 +21144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:11</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44387.49040509259</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21781,10 +21217,8 @@
           <t>4878854368</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:11</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44387.49040509259</v>
       </c>
       <c r="I292" t="n">
         <v>9</v>
@@ -21852,10 +21286,8 @@
           <t>4878857467</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:11</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44387.49040509259</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21927,10 +21359,8 @@
           <t>4878790811</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:10</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44387.49039351852</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22000,10 +21430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:08</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44387.49037037037</v>
       </c>
       <c r="I295" t="n">
         <v>17</v>
@@ -22071,10 +21499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:54</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44387.49020833334</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22146,10 +21572,8 @@
           <t>4878848745</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:46</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44387.49011574074</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22209,10 +21633,8 @@
           <t>4878853244</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:39</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44387.49003472222</v>
       </c>
       <c r="I298" t="n">
         <v>10</v>
@@ -22284,10 +21706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:29</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44387.48991898148</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22355,10 +21775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:29</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44387.48991898148</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22426,10 +21844,8 @@
           <t>4878852810</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:27</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44387.48989583334</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22505,10 +21921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:23</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44387.48984953704</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -22572,10 +21986,8 @@
           <t>4878855902</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:22</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44387.48983796296</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22643,10 +22055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:06</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44387.48965277777</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22710,10 +22120,8 @@
           <t>4878847351</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:05</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44387.48964120371</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22777,10 +22185,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:01</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44387.48959490741</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22848,10 +22254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:58</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44387.48956018518</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22927,10 +22331,8 @@
           <t>4878769982</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:51</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44387.48947916667</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -23006,10 +22408,8 @@
           <t>4878846321</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:36</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44387.48930555556</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23073,10 +22473,8 @@
           <t>4878845837</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:20</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44387.48912037037</v>
       </c>
       <c r="I310" t="n">
         <v>89</v>
@@ -23140,10 +22538,8 @@
           <t>4878845498</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:11</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44387.4890162037</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23219,10 +22615,8 @@
           <t>4878837188</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:00</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44387.48888888889</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23282,10 +22676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:55</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44387.48883101852</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23349,10 +22741,8 @@
           <t>4878842931</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:51</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44387.48878472222</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23428,10 +22818,8 @@
           <t>4878839275</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:50</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44387.48877314815</v>
       </c>
       <c r="I315" t="n">
         <v>6</v>
@@ -23507,10 +22895,8 @@
           <t>4878839156</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:47</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44387.48873842593</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23582,10 +22968,8 @@
           <t>4878842666</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:43</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44387.48869212963</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23653,10 +23037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:39</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44387.48864583333</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23724,10 +23106,8 @@
           <t>4878842506</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:38</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44387.48863425926</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23795,10 +23175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:29</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44387.4885300926</v>
       </c>
       <c r="I320" t="n">
         <v>13</v>
@@ -23877,10 +23255,8 @@
           <t>4878834012</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:26</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44387.48849537037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23952,10 +23328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:22</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44387.48844907407</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24019,10 +23393,8 @@
           <t>4878811864</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:19</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44387.48841435185</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24094,10 +23466,8 @@
           <t>4878837188</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:52</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44387.48810185185</v>
       </c>
       <c r="I324" t="n">
         <v>5</v>
@@ -24165,10 +23535,8 @@
           <t>4878837177</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:52</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44387.48810185185</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24228,10 +23596,8 @@
           <t>4878787829</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:44</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44387.48800925926</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24303,10 +23669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:24</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44387.48777777778</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24374,10 +23738,8 @@
           <t>4878796726</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:24</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44387.48777777778</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24453,10 +23815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:19</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44387.48771990741</v>
       </c>
       <c r="I329" t="n">
         <v>37</v>
@@ -24520,10 +23880,8 @@
           <t>4878827888</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:19</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44387.48771990741</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24599,10 +23957,8 @@
           <t>4878831638</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44387.48768518519</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24674,10 +24030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:53</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44387.48741898148</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24745,10 +24099,8 @@
           <t>4878828576</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:36</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44387.48722222223</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24816,10 +24168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:35</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44387.48721064815</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24896,10 +24246,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:26</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44387.48710648148</v>
       </c>
       <c r="I335" t="n">
         <v>5</v>
@@ -24971,10 +24319,8 @@
           <t>4878823654</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:17</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44387.48700231482</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25050,10 +24396,8 @@
           <t>4878827888</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:16</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44387.48699074074</v>
       </c>
       <c r="I337" t="n">
         <v>48</v>
@@ -25125,10 +24469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:15</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44387.48697916666</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25196,10 +24538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:08</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44387.48689814815</v>
       </c>
       <c r="I339" t="n">
         <v>4</v>
@@ -25268,10 +24608,8 @@
           <t>4878787829</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:06</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44387.486875</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25339,10 +24677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:36</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44387.48652777778</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25406,10 +24742,8 @@
           <t>4878822120</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:34</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44387.48650462963</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25473,10 +24807,8 @@
           <t>4878811864</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:31</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44387.48646990741</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25544,10 +24876,8 @@
           <t>4878821737</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:23</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44387.48637731482</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25611,10 +24941,8 @@
           <t>4878821693</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:21</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44387.48635416666</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25674,10 +25002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:16</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44387.48629629629</v>
       </c>
       <c r="I346" t="n">
         <v>969</v>
@@ -25753,10 +25079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:52</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44387.48601851852</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25824,10 +25148,8 @@
           <t>4878797416</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:51</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44387.48600694445</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -25891,10 +25213,8 @@
           <t>4878783548</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:50</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44387.48599537037</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25958,10 +25278,8 @@
           <t>4878816083</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:35</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44387.48582175926</v>
       </c>
       <c r="I350" t="n">
         <v>4</v>
@@ -26029,10 +25347,8 @@
           <t>4878815725</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:24</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44387.48569444445</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26104,10 +25420,8 @@
           <t>4878814355</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:18</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44387.485625</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26183,10 +25497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:38:58</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44387.48539351852</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26262,10 +25574,8 @@
           <t>4878806979</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:38:15</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44387.48489583333</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26337,10 +25647,8 @@
           <t>4878811864</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:38:11</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44387.48484953704</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26412,10 +25720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:38:05</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44387.48478009259</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26487,10 +25793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:37:49</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44387.48459490741</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26550,10 +25854,8 @@
           <t>4878802406</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:37:49</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44387.48459490741</v>
       </c>
       <c r="I358" t="n">
         <v>79</v>
@@ -26629,10 +25931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:37:22</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44387.48428240741</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26708,10 +26008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:56</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44387.48398148148</v>
       </c>
       <c r="I360" t="n">
         <v>6</v>
@@ -26783,10 +26081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:45</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44387.48385416667</v>
       </c>
       <c r="I361" t="n">
         <v>10</v>
@@ -26850,10 +26146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:29</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44387.48366898148</v>
       </c>
       <c r="I362" t="n">
         <v>162</v>
@@ -26921,10 +26215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:16</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44387.48351851852</v>
       </c>
       <c r="I363" t="n">
         <v>10</v>
@@ -27000,10 +26292,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:14</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44387.48349537037</v>
       </c>
       <c r="I364" t="n">
         <v>3</v>
@@ -27071,10 +26361,8 @@
           <t>4878797416</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:14</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44387.48349537037</v>
       </c>
       <c r="I365" t="n">
         <v>9</v>
@@ -27150,10 +26438,8 @@
           <t>4878792622</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:06</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44387.48340277778</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27229,10 +26515,8 @@
           <t>4878791502</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:04</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44387.48337962963</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -27292,10 +26576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:55</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44387.48327546296</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27374,10 +26656,8 @@
           <t>4878796726</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:55</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44387.48327546296</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27453,10 +26733,8 @@
           <t>4878788247</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:50</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44387.48321759259</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27530,10 +26808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:43</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44387.48313657408</v>
       </c>
       <c r="I371" t="n">
         <v>1144</v>
@@ -27597,10 +26873,8 @@
           <t>4878787883</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:40</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44387.48310185185</v>
       </c>
       <c r="I372" t="n">
         <v>2</v>
@@ -27664,10 +26938,8 @@
           <t>4878787829</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:38</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44387.48307870371</v>
       </c>
       <c r="I373" t="n">
         <v>7</v>
@@ -27739,10 +27011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:35</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44387.48304398148</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27818,10 +27088,8 @@
           <t>4878795431</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:19</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44387.4828587963</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27893,10 +27161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:16</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44387.48282407408</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27972,10 +27238,8 @@
           <t>4878790920</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:15</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44387.4828125</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28051,10 +27315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:14</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44387.48280092593</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28114,10 +27376,8 @@
           <t>4878790811</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:12</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44387.48277777778</v>
       </c>
       <c r="I379" t="n">
         <v>4</v>
@@ -28193,10 +27453,8 @@
           <t>4878790785</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:11</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44387.48276620371</v>
       </c>
       <c r="I380" t="n">
         <v>22</v>
@@ -28268,10 +27526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:08</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44387.48273148148</v>
       </c>
       <c r="I381" t="n">
         <v>43</v>
@@ -28343,10 +27599,8 @@
           <t>4878790690</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:08</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44387.48273148148</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28414,10 +27668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:04</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44387.48268518518</v>
       </c>
       <c r="I383" t="n">
         <v>10</v>
@@ -28481,10 +27733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:53</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44387.48255787037</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28552,10 +27802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:48</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44387.4825</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28623,10 +27871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:46</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44387.48247685185</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28694,10 +27940,8 @@
           <t>4878783548</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:28</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44387.48226851852</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28765,10 +28009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:17</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44387.48214120371</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28840,10 +28082,8 @@
           <t>4878782870</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:10</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44387.48206018518</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28911,10 +28151,8 @@
           <t>4878769982</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:10</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44387.48206018518</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28978,10 +28216,8 @@
           <t>4878769982</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:47</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44387.48179398148</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29045,10 +28281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:33</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44387.48163194444</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29116,10 +28350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:26</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44387.48155092593</v>
       </c>
       <c r="I393" t="n">
         <v>58</v>
@@ -29187,10 +28419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:25</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44387.48153935185</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29258,10 +28488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:23</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44387.4815162037</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29325,10 +28553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:17</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44387.48144675926</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29392,10 +28618,8 @@
           <t>4878780614</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:09</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44387.48135416667</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29467,10 +28691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:01</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44387.48126157407</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29542,10 +28764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:57</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44387.48121527778</v>
       </c>
       <c r="I399" t="n">
         <v>14</v>
@@ -29621,10 +28841,8 @@
           <t>4878769982</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:51</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44387.48114583334</v>
       </c>
       <c r="I400" t="n">
         <v>26</v>
@@ -29700,10 +28918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:42</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44387.48104166667</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29768,10 +28984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:39</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44387.48100694444</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29843,10 +29057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:37</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44387.4809837963</v>
       </c>
       <c r="I403" t="n">
         <v>4</v>
@@ -29914,10 +29126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:31</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44387.48091435185</v>
       </c>
       <c r="I404" t="n">
         <v>263</v>
@@ -29985,10 +29195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:26</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44387.48085648148</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30059,10 +29267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:18</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44387.48076388889</v>
       </c>
       <c r="I406" t="n">
         <v>603</v>
@@ -30130,10 +29336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:14</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44387.4807175926</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30205,10 +29409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:01</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44387.48056712963</v>
       </c>
       <c r="I408" t="n">
         <v>71</v>
@@ -30280,10 +29482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:58</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44387.4805324074</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30355,10 +29555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:52</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44387.48046296297</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30418,10 +29616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:45</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44387.48038194444</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30485,10 +29681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:40</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44387.48032407407</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30564,10 +29758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:39</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44387.4803125</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30643,10 +29835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:37</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44387.48028935185</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30714,10 +29904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:29</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44387.48019675926</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30794,10 +29982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:26</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44387.48016203703</v>
       </c>
       <c r="I416" t="n">
         <v>51</v>
@@ -30873,10 +30059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:20</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44387.4800925926</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30940,10 +30124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:17</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44387.48005787037</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31019,10 +30201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:15</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44387.48003472222</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31098,10 +30278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:12</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44387.48</v>
       </c>
       <c r="I420" t="n">
         <v>18</v>
@@ -31169,10 +30347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:06</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44387.47993055556</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31240,10 +30416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:02</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44387.47988425926</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31307,10 +30481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:59</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44387.47984953703</v>
       </c>
       <c r="I423" t="n">
         <v>4</v>
@@ -31374,10 +30546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:53</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44387.4797800926</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31449,10 +30619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:50</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44387.47974537037</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31528,10 +30696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:50</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44387.47974537037</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31595,10 +30761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:44</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44387.47967592593</v>
       </c>
       <c r="I427" t="n">
         <v>620</v>
@@ -31674,10 +30838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:37</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44387.47959490741</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31737,10 +30899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:34</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44387.47956018519</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -31812,10 +30972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:31</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44387.47952546296</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31879,10 +31037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:23</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44387.47943287037</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31946,10 +31102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:23</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44387.47943287037</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
